--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value568.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value568.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.602742991495658</v>
+        <v>1.007179260253906</v>
       </c>
       <c r="B1">
-        <v>1.765595592329532</v>
+        <v>1.481809854507446</v>
       </c>
       <c r="C1">
-        <v>2.847020911440341</v>
+        <v>3.280383348464966</v>
       </c>
       <c r="D1">
-        <v>2.622623836971637</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.172541411119248</v>
+        <v>1.454526901245117</v>
       </c>
     </row>
   </sheetData>
